--- a/requeriments/Costo de Produccion.xlsx
+++ b/requeriments/Costo de Produccion.xlsx
@@ -15,6 +15,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Cantidad: Peso o Cantidad de unidades</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
@@ -39,9 +63,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>peso_Ing_Rec</t>
-  </si>
-  <si>
     <t>precio_Ing_Rec</t>
   </si>
   <si>
@@ -51,10 +72,13 @@
     <t>precio_Ing</t>
   </si>
   <si>
-    <t>peso_Ing</t>
-  </si>
-  <si>
     <t>precioU_Ing</t>
+  </si>
+  <si>
+    <t>cant_Ing</t>
+  </si>
+  <si>
+    <t>cant_Ing_Rec</t>
   </si>
 </sst>
 </file>
@@ -64,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +108,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -440,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,22 +495,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>2</v>
@@ -648,6 +679,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
